--- a/src/test/resources/excelsheets/TestData_withTestCaseName.xlsx
+++ b/src/test/resources/excelsheets/TestData_withTestCaseName.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Cucumbe_-Karate_RestAssurred_API_Automation\SeleniumJavaAutomation_NewSite\src\test\resources\excelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d9ad9314d52015b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ADFA4E-D9EA-4536-A1DE-AB2381D4F709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{663BF080-AE5F-4B7A-8F4F-206C6488FF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578AB837-48E8-4734-BF13-2D948FF3D713}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A144C4B7-8703-4116-8F39-8F22B673AD23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C84C77DA-10D7-4E8E-BD45-CDA21B6B6942}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,49 +38,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>TC001</t>
+  </si>
+  <si>
     <t>brajasundardash82@gmail.com</t>
   </si>
   <si>
     <t>Lisha143!</t>
   </si>
   <si>
+    <t>TC002</t>
+  </si>
+  <si>
     <t>oceanbrajsundar@gmail.com</t>
   </si>
   <si>
     <t>lisha143</t>
   </si>
   <si>
+    <t>TC003</t>
+  </si>
+  <si>
     <t>pinkilisha22@gmail.com</t>
   </si>
   <si>
     <t>Pinklilisha</t>
   </si>
   <si>
+    <t>TC004</t>
+  </si>
+  <si>
     <t>pinkilishamishra13@gmail.com</t>
   </si>
   <si>
     <t>Pinklilisha143</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TestCaseId</t>
   </si>
 </sst>
 </file>
@@ -111,13 +113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,83 +453,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2CE217-4F6E-4B26-BB4C-BC8548D43023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE4B63-B737-4436-AA8B-31521F881FC6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E4236ABA-CA43-40D1-BFE0-1C97318D64B9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1F6E2539-5B35-4228-A0F0-9DC789EE6C18}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AB7FA48B-2078-4B0E-90E0-5F0931D3D612}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{A764E749-5A78-4D16-AF9A-8C50FA99DE47}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CEC6BE6D-53C4-4181-BA6A-28D89E6579A7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5659EC13-5037-4379-BAC1-10A7EB1BEFBA}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D2CD83EA-FD93-4B3C-B555-A1AE34F650EC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{42D4316E-80CA-432A-9E5C-A35C5ADCAAEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>